--- a/output/StructureDefinition-utn-procedure-beatmung.xlsx
+++ b/output/StructureDefinition-utn-procedure-beatmung.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T14:08:24+02:00</t>
+    <t>2025-06-13T14:46:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-utn-procedure-beatmung.xlsx
+++ b/output/StructureDefinition-utn-procedure-beatmung.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-13T14:46:42+02:00</t>
+    <t>2025-06-16T14:33:49+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-utn-procedure-beatmung.xlsx
+++ b/output/StructureDefinition-utn-procedure-beatmung.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3372" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3408" uniqueCount="584">
   <si>
     <t>Property</t>
   </si>
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://utn/consentresource.com/StructureDefinition/utn-procedure-beatmung</t>
+    <t>https://www.utn-num.de/fhir/StructureDefinition/utn-procedure-beatmung</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,19 +60,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-16T14:33:49+02:00</t>
+    <t>2025-06-18T11:50:53+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>BIH-CEI</t>
+    <t>BIH at Charité - Core Unit Digital Medicine and Interoperability</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>BIH-CEI (http://utn/consentresource.com)</t>
+    <t>BIH at Charité - Core Unit Digital Medicine and Interoperability (https://www.bihealth.org/de/forschung/arbeitsgruppen/interoperabilitaet/home)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}proc-mii-1:Falls die Prozedur per OPS kodiert wird, muss eine SNOMED-CT kodierte Category abgebildet werden {code.coding.where(system = 'http://fhir.de/CodeSystem/bfarm/ops').exists() implies category.coding.where(system = 'http://snomed.info/sct').exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}proc-mii-1:Falls die Prozedur per OPS kodiert wird, MUSS eine SNOMED-CT kodierte Category abgebildet werden {code.coding.where(system = 'http://fhir.de/CodeSystem/bfarm/ops').exists() implies category.coding.where(system = 'http://snomed.info/sct').exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -625,9 +625,6 @@
 </t>
   </si>
   <si>
-    <t>Dokumentationsdatum der Prozedur</t>
-  </si>
-  <si>
     <t>Dokumentationsdatum der Prozedur, falls abweichend vom Durchführungsdatum</t>
   </si>
   <si>
@@ -641,10 +638,10 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Durchführungsabsicht</t>
+  </si>
+  <si>
+    <t>therapeutisch | palliativ | diagnostisch | präventiv | rehabilitativ | andere</t>
   </si>
   <si>
     <t>Procedure.modifierExtension</t>
@@ -768,18 +765,17 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure|Observation) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
+    <t xml:space="preserve">Reference(Procedure|Observation)
 </t>
   </si>
   <si>
-    <t>A reference from one resource to another</t>
-  </si>
-  <si>
-    <t>A reference from one resource to another.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}mii-reference-1:Either reference.reference OR reference.identifier exists {($this.reference.exists() or ($this.identifier.value.exists() and $this.identifier.system.exists())) xor $this.extension('http://hl7.org/fhir/StructureDefinition/data-absent-reason').exists()}</t>
+    <t>Part of referenced event</t>
+  </si>
+  <si>
+    <t>A larger event of which this particular procedure is a component or step.</t>
+  </si>
+  <si>
+    <t>The MedicationAdministration resource has a partOf reference to Procedure, but this is not a circular reference.   For example, the anesthesia MedicationAdministration is part of the surgical Procedure (MedicationAdministration.partOf = Procedure).  For example, the procedure to insert the IV port for an IV medication administration is part of the medication administration (Procedure.partOf = MedicationAdministration).</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -791,10 +787,7 @@
     <t>Procedure.status</t>
   </si>
   <si>
-    <t>preparation | in-progress | not-done | on-hold | stopped | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the procedure. Generally, this will be the in-progress or completed state.</t>
+    <t>Vorbereitung | in Arbeit | nicht durchgeführt | pausiert | abgebrochen | abgeschlossen | Eingabe fehlerhaft | unbekannt</t>
   </si>
   <si>
     <t>The "unknown" code is not to be used to convey other statuses.  The "unknown" code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the procedure.
@@ -857,10 +850,10 @@
     <t>Procedure.category</t>
   </si>
   <si>
-    <t>Classification of the procedure</t>
-  </si>
-  <si>
-    <t>A code that classifies the procedure for searching, sorting and display purposes (e.g. "Surgical Procedure").</t>
+    <t>Kategorie</t>
+  </si>
+  <si>
+    <t>Diagnostische Maßnahmen | Bildgebende Diagnostik | Operationen | Medikamente | Nichtoperative therapeutische Maßnahmen | Ergänzende Maßnahmen</t>
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
@@ -916,6 +909,12 @@
   </si>
   <si>
     <t>sct</t>
+  </si>
+  <si>
+    <t>SNOMED CT Code</t>
+  </si>
+  <si>
+    <t>Ein Verweis auf einen von SNOMED CT definierten Code</t>
   </si>
   <si>
     <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
@@ -1102,10 +1101,7 @@
 </t>
   </si>
   <si>
-    <t>Identification of the procedure</t>
-  </si>
-  <si>
-    <t>The specific procedure that is performed. Use text if the exact nature of the procedure cannot be coded (e.g. "Laparoscopic Appendectomy").</t>
+    <t>Code aus OPS - Operationen- und Prozedurenschlüssel, SNOMED CT oder andere.</t>
   </si>
   <si>
     <t>0..1 to account for primarily narrative only resources.</t>
@@ -1118,7 +1114,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-sct-ops-1:Entweder wird die Prozedur mit OPS oder SNOMED-CT kodiert. {coding.where(system = 'http://snomed.info/sct').exists() or coding.where(system = 'http://fhir.de/CodeSystem/bfarm/ops').exists()}</t>
+sct-ops-1:Eine Prozedur MUSS mit OPS oder SNOMED-CT kodiert werden. {coding.where(system = 'http://snomed.info/sct').exists() or coding.where(system = 'http://fhir.de/CodeSystem/bfarm/ops').exists()}</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1152,7 +1148,10 @@
 </t>
   </si>
   <si>
-    <t>A reference to a code defined by a terminology system</t>
+    <t>Operationen- und Prozedurenschlüssel (OPS) Code</t>
+  </si>
+  <si>
+    <t>Ein Verweis auf einen vom Operationen- und Prozedurenschlüssel (OPS) definierten Code</t>
   </si>
   <si>
     <t>Codes may be defined very casually in enumerations or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.</t>
@@ -1188,6 +1187,12 @@
 </t>
   </si>
   <si>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
+  </si>
+  <si>
     <t>Procedure.code.coding:ops.system</t>
   </si>
   <si>
@@ -1278,10 +1283,16 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
+    <t>Who the procedure was performed on</t>
+  </si>
+  <si>
+    <t>The person, animal or group on which the procedure was performed.</t>
+  </si>
+  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1297,8 +1308,17 @@
     <t>Procedure.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
+  </si>
+  <si>
+    <t>Encounter created as part of</t>
+  </si>
+  <si>
+    <t>The Encounter during which this Procedure was created or performed or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter.</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1320,15 +1340,19 @@
 </t>
   </si>
   <si>
-    <t>When the procedure was performed</t>
-  </si>
-  <si>
-    <t>Estimated or actual date, date-time, period, or age when the procedure was performed.  Allows a period to support complex procedures that span more than one date, and also allows for the length of the procedure to be captured.</t>
+    <t>Durchführungsdatum</t>
+  </si>
+  <si>
+    <t>Durchführungsdatum oder -zeitraum der Prozedur.</t>
   </si>
   <si>
     <t>Age is generally used when the patient reports an age at which the procedure was performed. Range is generally used when the patient reports an age range when the procedure was performed, such as sometime between 20-25 years old.  dateTime supports a range of precision due to some procedures being reported as past procedures that might not have millisecond precision while other procedures performed and documented during the encounter might have more precise UTC timestamps with timezone.</t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -1341,26 +1365,40 @@
     <t>OBR-7</t>
   </si>
   <si>
+    <t>Procedure.performed[x]:performedPeriod</t>
+  </si>
+  <si>
+    <t>performedPeriod</t>
+  </si>
+  <si>
+    <t>Durchführungszeitraum</t>
+  </si>
+  <si>
+    <t>Zeitraum, in dem die Prozedur durchgeführt wurde.</t>
+  </si>
+  <si>
     <t>Procedure.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole) {https://www.medizininformatik-initiative.de/fhir/core/StructureDefinition/MII-Reference}
-</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>FiveWs.author</t>
-  </si>
-  <si>
-    <t>Procedure.asserter</t>
   </si>
   <si>
     <t xml:space="preserve">Reference(Patient|RelatedPerson|Practitioner|PractitionerRole)
 </t>
   </si>
   <si>
+    <t>Who recorded the procedure</t>
+  </si>
+  <si>
+    <t>Individual who recorded the record and takes responsibility for its content.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=AUT].role</t>
+  </si>
+  <si>
+    <t>FiveWs.author</t>
+  </si>
+  <si>
+    <t>Procedure.asserter</t>
+  </si>
+  <si>
     <t>Person who asserts this procedure</t>
   </si>
   <si>
@@ -1561,10 +1599,10 @@
     <t>Procedure.bodySite</t>
   </si>
   <si>
-    <t>Target body sites</t>
-  </si>
-  <si>
-    <t>Detailed and structured anatomical location information. Multiple locations are allowed - e.g. multiple punch biopsies of a lesion.</t>
+    <t>Körperstelle</t>
+  </si>
+  <si>
+    <t>Körperstelle der Prozedur mittels SNOMED CT inklusive Lateralität.</t>
   </si>
   <si>
     <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [procedure-targetbodystructure](http://hl7.org/fhir/R4/extension-procedure-targetbodystructure.html).</t>
@@ -1684,10 +1722,10 @@
 </t>
   </si>
   <si>
-    <t>Additional information about the procedure</t>
-  </si>
-  <si>
-    <t>Any other notes and comments about the procedure.</t>
+    <t>Hinweis</t>
+  </si>
+  <si>
+    <t>Zusätzliche Informationen zur Prozedur als Freitext.</t>
   </si>
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).</t>
@@ -2115,7 +2153,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN92"/>
+  <dimension ref="A1:AN93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2134,7 +2172,7 @@
     <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="118.55078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.6015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -4138,10 +4176,10 @@
         <v>194</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>112</v>
@@ -4223,13 +4261,13 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>189</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>108</v>
@@ -4251,13 +4289,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N19" t="s" s="2">
         <v>112</v>
@@ -4339,10 +4377,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4368,16 +4406,16 @@
         <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4426,7 +4464,7 @@
         <v>115</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4455,10 +4493,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4481,19 +4519,19 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4542,7 +4580,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -4557,24 +4595,24 @@
         <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>216</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4597,16 +4635,16 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4656,7 +4694,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4671,10 +4709,10 @@
         <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
@@ -4685,10 +4723,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4714,13 +4752,13 @@
         <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4770,7 +4808,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4785,10 +4823,10 @@
         <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -4799,14 +4837,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4825,16 +4863,16 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4884,7 +4922,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4896,13 +4934,13 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
@@ -4913,14 +4951,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4939,16 +4977,16 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4998,7 +5036,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -5010,13 +5048,13 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
@@ -5027,10 +5065,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5056,13 +5094,13 @@
         <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="N26" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5088,14 +5126,14 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Z26" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
       </c>
@@ -5112,7 +5150,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>86</v>
@@ -5127,13 +5165,13 @@
         <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>20</v>
@@ -5141,14 +5179,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5167,16 +5205,16 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5205,10 +5243,10 @@
         <v>156</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5226,7 +5264,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -5241,24 +5279,24 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM27" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5281,16 +5319,16 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>270</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5319,10 +5357,10 @@
         <v>156</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5340,7 +5378,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -5358,21 +5396,21 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5481,10 +5519,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5595,10 +5633,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5624,16 +5662,16 @@
         <v>142</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5670,7 +5708,7 @@
         <v>20</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
@@ -5680,7 +5718,7 @@
         <v>115</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5698,24 +5736,24 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>20</v>
@@ -5740,16 +5778,16 @@
         <v>142</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N32" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5774,7 +5812,7 @@
         <v>20</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y32" s="2"/>
       <c r="Z32" t="s" s="2">
@@ -5796,7 +5834,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5814,13 +5852,13 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -6771,19 +6809,19 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O41" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -6811,10 +6849,10 @@
         <v>156</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>20</v>
@@ -6844,27 +6882,27 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>357</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6973,10 +7011,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7087,10 +7125,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7116,16 +7154,16 @@
         <v>142</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7162,7 +7200,7 @@
         <v>20</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
@@ -7172,7 +7210,7 @@
         <v>115</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7190,24 +7228,24 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C45" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>20</v>
@@ -7229,19 +7267,19 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>365</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7266,7 +7304,7 @@
         <v>20</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
@@ -7288,7 +7326,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7306,13 +7344,13 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" hidden="true">
@@ -7574,10 +7612,10 @@
         <v>374</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>200</v>
+        <v>375</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>201</v>
+        <v>376</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>112</v>
@@ -7659,10 +7697,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7688,7 +7726,7 @@
         <v>130</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>297</v>
@@ -7704,7 +7742,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>20</v>
@@ -7775,10 +7813,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7804,10 +7842,10 @@
         <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>307</v>
@@ -7889,10 +7927,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7918,7 +7956,7 @@
         <v>166</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>314</v>
@@ -7940,7 +7978,7 @@
         <v>20</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>20</v>
@@ -7988,7 +8026,7 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -8005,10 +8043,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8121,10 +8159,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8237,13 +8275,13 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>20</v>
@@ -8268,16 +8306,16 @@
         <v>142</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="O54" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
@@ -8302,11 +8340,11 @@
         <v>20</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>20</v>
@@ -8324,7 +8362,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8342,18 +8380,18 @@
         <v>20</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>369</v>
@@ -8465,7 +8503,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>371</v>
@@ -8579,10 +8617,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8695,10 +8733,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8809,10 +8847,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8925,10 +8963,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9041,10 +9079,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9157,10 +9195,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9273,14 +9311,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9299,16 +9337,16 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>241</v>
+        <v>407</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>242</v>
+        <v>408</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9358,7 +9396,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -9370,27 +9408,27 @@
         <v>98</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9413,16 +9451,16 @@
         <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>241</v>
+        <v>415</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>242</v>
+        <v>416</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>234</v>
+        <v>417</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9472,7 +9510,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9484,27 +9522,27 @@
         <v>98</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9527,16 +9565,16 @@
         <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9574,19 +9612,17 @@
         <v>20</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="AC65" s="2"/>
       <c r="AD65" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -9601,26 +9637,28 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>20</v>
       </c>
@@ -9632,7 +9670,7 @@
         <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>20</v>
@@ -9641,16 +9679,16 @@
         <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>241</v>
+        <v>434</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>242</v>
+        <v>435</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>234</v>
+        <v>426</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9700,7 +9738,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9712,27 +9750,27 @@
         <v>98</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>243</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>20</v>
+        <v>428</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>20</v>
+        <v>431</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9746,7 +9784,7 @@
         <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>20</v>
@@ -9755,16 +9793,16 @@
         <v>87</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9814,7 +9852,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
@@ -9826,16 +9864,16 @@
         <v>98</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>20</v>
@@ -9843,10 +9881,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9857,7 +9895,7 @@
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
@@ -9869,15 +9907,17 @@
         <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>233</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -9926,28 +9966,28 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>438</v>
+        <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>20</v>
+        <v>446</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>20</v>
@@ -9955,10 +9995,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9969,7 +10009,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>20</v>
@@ -9978,16 +10018,16 @@
         <v>20</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>103</v>
+        <v>449</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>104</v>
+        <v>450</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10038,25 +10078,25 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>105</v>
+        <v>447</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>20</v>
+        <v>451</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>106</v>
+        <v>452</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>20</v>
@@ -10067,21 +10107,21 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>20</v>
@@ -10093,17 +10133,15 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10140,37 +10178,37 @@
         <v>20</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>20</v>
@@ -10181,14 +10219,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>443</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10201,26 +10239,24 @@
         <v>20</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>444</v>
+        <v>110</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>445</v>
+        <v>111</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O71" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>20</v>
       </c>
@@ -10256,19 +10292,19 @@
         <v>20</v>
       </c>
       <c r="AB71" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC71" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>446</v>
+        <v>116</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10297,45 +10333,45 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>258</v>
+        <v>109</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>270</v>
+        <v>112</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>450</v>
+        <v>204</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -10360,13 +10396,13 @@
         <v>20</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>451</v>
+        <v>20</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>452</v>
+        <v>20</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -10384,39 +10420,39 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>453</v>
+        <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>454</v>
+        <v>100</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>455</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10424,7 +10460,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>86</v>
@@ -10439,19 +10475,19 @@
         <v>87</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>457</v>
+        <v>256</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -10476,13 +10512,13 @@
         <v>20</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>20</v>
+        <v>464</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>20</v>
+        <v>465</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>20</v>
@@ -10500,10 +10536,10 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>86</v>
@@ -10512,27 +10548,27 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>463</v>
+        <v>20</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10540,7 +10576,7 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>86</v>
@@ -10552,22 +10588,22 @@
         <v>20</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -10616,10 +10652,10 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>86</v>
@@ -10628,27 +10664,27 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>20</v>
+        <v>474</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>20</v>
+        <v>476</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>20</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10668,22 +10704,22 @@
         <v>20</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -10732,7 +10768,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
@@ -10744,16 +10780,16 @@
         <v>98</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>477</v>
+        <v>20</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>20</v>
@@ -10761,10 +10797,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10775,7 +10811,7 @@
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>20</v>
@@ -10787,18 +10823,20 @@
         <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>258</v>
+        <v>485</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="O76" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>488</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
       </c>
@@ -10822,13 +10860,13 @@
         <v>20</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>482</v>
+        <v>20</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>483</v>
+        <v>20</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>20</v>
@@ -10846,39 +10884,39 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>484</v>
+        <v>20</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10901,16 +10939,16 @@
         <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>488</v>
+        <v>256</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10936,13 +10974,13 @@
         <v>20</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>20</v>
+        <v>495</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>20</v>
+        <v>496</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>20</v>
@@ -10960,7 +10998,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
@@ -10972,27 +11010,27 @@
         <v>98</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>486</v>
+        <v>499</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11006,7 +11044,7 @@
         <v>78</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>20</v>
@@ -11015,16 +11053,16 @@
         <v>87</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>258</v>
+        <v>501</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11050,13 +11088,13 @@
         <v>20</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>146</v>
+        <v>20</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>497</v>
+        <v>20</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>498</v>
+        <v>20</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
@@ -11074,7 +11112,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -11086,27 +11124,27 @@
         <v>98</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>20</v>
+        <v>505</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="AM78" t="s" s="2">
-        <v>20</v>
-      </c>
       <c r="AN78" t="s" s="2">
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11117,10 +11155,10 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>20</v>
@@ -11129,16 +11167,16 @@
         <v>87</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11164,37 +11202,37 @@
         <v>20</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="Z79" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF79" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AA79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>501</v>
-      </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>98</v>
@@ -11206,21 +11244,21 @@
         <v>20</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>266</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11231,7 +11269,7 @@
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>20</v>
@@ -11240,19 +11278,19 @@
         <v>20</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>509</v>
+        <v>256</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11278,13 +11316,13 @@
         <v>20</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>20</v>
+        <v>518</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>20</v>
+        <v>519</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>20</v>
@@ -11302,39 +11340,39 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11357,16 +11395,16 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>258</v>
+        <v>522</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11392,13 +11430,13 @@
         <v>20</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>518</v>
+        <v>20</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>519</v>
+        <v>20</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>20</v>
@@ -11416,7 +11454,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11428,27 +11466,27 @@
         <v>98</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11471,20 +11509,18 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>522</v>
+        <v>256</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>20</v>
       </c>
@@ -11508,13 +11544,13 @@
         <v>20</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>20</v>
+        <v>531</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>20</v>
+        <v>532</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>20</v>
@@ -11532,7 +11568,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11544,27 +11580,27 @@
         <v>98</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11587,18 +11623,20 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>258</v>
+        <v>535</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>538</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
       </c>
@@ -11622,13 +11660,13 @@
         <v>20</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>529</v>
+        <v>20</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>530</v>
+        <v>20</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>20</v>
@@ -11646,7 +11684,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11658,27 +11696,27 @@
         <v>98</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>99</v>
+        <v>234</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11692,7 +11730,7 @@
         <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>20</v>
@@ -11701,16 +11739,16 @@
         <v>20</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>533</v>
+        <v>256</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>536</v>
+        <v>268</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11736,13 +11774,13 @@
         <v>20</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>20</v>
+        <v>542</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>20</v>
+        <v>543</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>20</v>
@@ -11760,7 +11798,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11775,24 +11813,24 @@
         <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>537</v>
+        <v>20</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>539</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11806,7 +11844,7 @@
         <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>20</v>
@@ -11815,15 +11853,17 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>435</v>
+        <v>546</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>548</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>549</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -11872,7 +11912,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
@@ -11887,24 +11927,24 @@
         <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>20</v>
+        <v>550</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>20</v>
+        <v>552</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11915,7 +11955,7 @@
         <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>20</v>
@@ -11927,13 +11967,13 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>102</v>
+        <v>448</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>103</v>
+        <v>554</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>104</v>
+        <v>555</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11984,25 +12024,25 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>105</v>
+        <v>553</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>106</v>
+        <v>556</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>20</v>
@@ -12013,21 +12053,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>20</v>
@@ -12039,17 +12079,15 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -12086,37 +12124,37 @@
         <v>20</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>20</v>
@@ -12127,14 +12165,14 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>443</v>
+        <v>108</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12147,26 +12185,24 @@
         <v>20</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>109</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>444</v>
+        <v>110</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>445</v>
+        <v>111</v>
       </c>
       <c r="N88" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="O88" t="s" s="2">
-        <v>205</v>
-      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>20</v>
       </c>
@@ -12202,19 +12238,19 @@
         <v>20</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="AC88" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AD88" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>446</v>
+        <v>116</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12243,44 +12279,46 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>20</v>
+        <v>456</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>258</v>
+        <v>109</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>548</v>
+        <v>457</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>549</v>
+        <v>458</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>20</v>
       </c>
@@ -12304,13 +12342,13 @@
         <v>20</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>550</v>
+        <v>20</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>551</v>
+        <v>20</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>20</v>
@@ -12328,39 +12366,39 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>547</v>
+        <v>459</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>552</v>
+        <v>100</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>266</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12368,7 +12406,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>86</v>
@@ -12383,16 +12421,16 @@
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>554</v>
+        <v>256</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -12418,13 +12456,13 @@
         <v>20</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>20</v>
+        <v>563</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>20</v>
+        <v>564</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>20</v>
@@ -12442,10 +12480,10 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>86</v>
@@ -12454,27 +12492,27 @@
         <v>98</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>235</v>
+        <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>20</v>
+        <v>264</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12482,10 +12520,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>20</v>
@@ -12497,20 +12535,18 @@
         <v>20</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>563</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>20</v>
       </c>
@@ -12558,25 +12594,25 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>20</v>
@@ -12587,10 +12623,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12613,18 +12649,20 @@
         <v>20</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>258</v>
+        <v>572</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>575</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>576</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>20</v>
       </c>
@@ -12648,13 +12686,13 @@
         <v>20</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>568</v>
+        <v>20</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>569</v>
+        <v>20</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>20</v>
@@ -12672,7 +12710,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -12684,23 +12722,137 @@
         <v>98</v>
       </c>
       <c r="AJ92" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL92" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="AM92" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN92" t="s" s="2">
-        <v>266</v>
+      <c r="AK93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>264</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN92">
+  <autoFilter ref="A1:AN93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12710,7 +12862,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI91">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-utn-procedure-beatmung.xlsx
+++ b/output/StructureDefinition-utn-procedure-beatmung.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-18T11:50:53+02:00</t>
+    <t>2025-06-18T14:35:27+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
